--- a/video-website.xlsx
+++ b/video-website.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="23960"/>
+    <workbookView windowHeight="18320"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="52">
   <si>
     <t>序号</t>
   </si>
@@ -28,6 +28,9 @@
     <t>完成度</t>
   </si>
   <si>
+    <t>问题</t>
+  </si>
+  <si>
     <t>爱奇艺</t>
   </si>
   <si>
@@ -158,6 +161,10 @@
   </si>
   <si>
     <t>https://v.kuaishou.com/diUCxC</t>
+  </si>
+  <si>
+    <t>需要定时更新cookie，
+cookie有效期一年</t>
   </si>
   <si>
     <t>https://v.kuaishou.com/hiZKok</t>
@@ -542,7 +549,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -576,6 +583,19 @@
         <color auto="1"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -724,7 +744,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -736,34 +756,34 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -848,8 +868,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -862,31 +885,52 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1206,360 +1250,405 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D52"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="19.25" customWidth="1"/>
     <col min="3" max="3" width="76.1071428571429" customWidth="1"/>
     <col min="4" max="4" width="18.375" customWidth="1"/>
+    <col min="5" max="5" width="21.7232142857143" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="3">
+      <c r="E1" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="17"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="18"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="19"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="9">
+        <v>2</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="17"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="18"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="19"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="9">
+        <v>3</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="17"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="18"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="19"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="9">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="B11" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="17"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="18"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="19"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="9">
         <v>5</v>
       </c>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="4" t="s">
+      <c r="B14" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="17"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="18"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="19"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="9">
         <v>6</v>
       </c>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="4" t="s">
+      <c r="B17" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="14"/>
+      <c r="E17" s="20"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="10"/>
+      <c r="E18" s="20"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="20"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="9">
         <v>7</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="B20" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="17"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="18"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="19"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="9">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="7">
-        <v>2</v>
-      </c>
-      <c r="B5" s="7" t="s">
+      <c r="B23" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="E23" s="17"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="18"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="19"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="9">
+        <v>9</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="17"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="18"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="19"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="9">
         <v>10</v>
       </c>
-      <c r="D5" s="8"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="1" t="s">
+      <c r="B29" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="17"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="18"/>
+    </row>
+    <row r="31" ht="17" customHeight="1" spans="1:5">
+      <c r="A31" s="12"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31" s="6"/>
+      <c r="E31" s="19"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="9">
         <v>11</v>
       </c>
-      <c r="D6" s="8"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="8"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="7">
-        <v>3</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="8"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="7">
-        <v>4</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="7">
-        <v>5</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="7">
-        <v>6</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="12"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="8"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="7">
-        <v>7</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" s="1"/>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="7">
-        <v>8</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="7">
+      <c r="B32" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D32" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="7">
-        <v>10</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D29" s="1"/>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="9"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D30" s="1"/>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="10"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D31" s="1"/>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="7">
-        <v>11</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D32" s="1"/>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="9"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D33" s="1"/>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="10"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="1" t="s">
+      <c r="E32" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="D34" s="1"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="11"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="18"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="12"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" s="19"/>
     </row>
     <row r="52" spans="2:2">
-      <c r="B52" s="13"/>
+      <c r="B52" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="33">
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="A8:A10"/>
@@ -1582,6 +1671,17 @@
     <mergeCell ref="B26:B28"/>
     <mergeCell ref="B29:B31"/>
     <mergeCell ref="B32:B34"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="E29:E31"/>
+    <mergeCell ref="E32:E34"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C14" r:id="rId1" display="https://www.bilibili.com/bangumi/play/ss35195" tooltip="https://www.bilibili.com/bangumi/play/ss35195"/>
@@ -1591,8 +1691,16 @@
     <hyperlink ref="C23" r:id="rId5" display="https://tv.cctv.com/2022/03/08/VIDEnptauE0cn7I2t7ycCAs8220308.shtml"/>
     <hyperlink ref="C24" r:id="rId6" display="https://tv.cctv.com/2023/03/13/VIDEecCBy1ZBv5L8g16LFOCc230313.shtml"/>
     <hyperlink ref="C26" r:id="rId7" display="https://v.ifeng.com/c/8O1MxOEuQ4k"/>
-    <hyperlink ref="C27" r:id="rId8" display="https://v.ifeng.com/c/8Mhn0o5wXPi"/>
+    <hyperlink ref="C27" r:id="rId8" display="https://v.ifeng.com/c/8Mhn0o5wXPi" tooltip="https://v.ifeng.com/c/8Mhn0o5wXPi"/>
     <hyperlink ref="C28" r:id="rId9" display="https://v.ifeng.com/c/8LYJO5wUt7z"/>
+    <hyperlink ref="C29" r:id="rId10" display="https://www.ixigua.com/pseries/6762421329418256907_6760625597132571147/"/>
+    <hyperlink ref="C32" r:id="rId11" display="https://v.kuaishou.com/diUCxC" tooltip="https://v.kuaishou.com/diUCxC"/>
+    <hyperlink ref="C31" r:id="rId12" display="https://www.ixigua.com/7067856027621949964"/>
+    <hyperlink ref="C17" r:id="rId13" display="https://tv.sohu.com/v/MjAyMjA2MTYvbjYwMTE5MDc4NC5zaHRtbA==.html"/>
+    <hyperlink ref="C11" r:id="rId14" display="https://www.mgtv.com/b/354045/10948467.html"/>
+    <hyperlink ref="C12" r:id="rId15" display="https://www.mgtv.com/b/388252/15472835.html"/>
+    <hyperlink ref="C13" r:id="rId16" display="https://www.mgtv.com/b/401876/15491442.html"/>
+    <hyperlink ref="C8" r:id="rId17" display="https://v.youku.com/v_show/id_XNTIwNTIwMzQyMA==.html"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/video-website.xlsx
+++ b/video-website.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="18320"/>
+    <workbookView windowHeight="23960"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="53">
   <si>
     <t>序号</t>
   </si>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t>https://tv.sohu.com/v/MjAyMjA2MTYvbjYwMTE5MDc4NC5zaHRtbA==.html</t>
+  </si>
+  <si>
+    <t>var vid="7835608";</t>
   </si>
   <si>
     <t>https://tv.sohu.com/v/MjAyMDA3MDMvbjYwMDg3NzE0OS5zaHRtbA==.html</t>
@@ -876,9 +879,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -910,6 +910,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1250,18 +1253,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="2" width="19.25" customWidth="1"/>
     <col min="3" max="3" width="76.1071428571429" customWidth="1"/>
     <col min="4" max="4" width="18.375" customWidth="1"/>
     <col min="5" max="5" width="21.7232142857143" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.9464285714286" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1274,7 +1278,7 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="16" t="s">
@@ -1282,364 +1286,367 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="6"/>
+      <c r="D2" s="5"/>
       <c r="E2" s="17"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="5" t="s">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="6"/>
+      <c r="D3" s="5"/>
       <c r="E3" s="18"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="5" t="s">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="19"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="9">
+      <c r="A5" s="8">
         <v>2</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="10"/>
+      <c r="D5" s="9"/>
       <c r="E5" s="17"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
       <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="10"/>
+      <c r="D6" s="9"/>
       <c r="E6" s="18"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
       <c r="C7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="10"/>
+      <c r="D7" s="9"/>
       <c r="E7" s="19"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="9">
+      <c r="A8" s="8">
         <v>3</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="6"/>
+      <c r="D8" s="5"/>
       <c r="E8" s="17"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
       <c r="C9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="6"/>
+      <c r="D9" s="5"/>
       <c r="E9" s="18"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
       <c r="C10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="10"/>
+      <c r="D10" s="9"/>
       <c r="E10" s="19"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="9">
+      <c r="A11" s="8">
         <v>4</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="6"/>
+      <c r="D11" s="5"/>
       <c r="E11" s="17"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="13" t="s">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="6"/>
+      <c r="D12" s="5"/>
       <c r="E12" s="18"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="13" t="s">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="6"/>
+      <c r="D13" s="5"/>
       <c r="E13" s="19"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="9">
+      <c r="A14" s="8">
         <v>5</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="6"/>
+      <c r="D14" s="5"/>
       <c r="E14" s="17"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
       <c r="C15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="6"/>
+      <c r="D15" s="5"/>
       <c r="E15" s="18"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
       <c r="C16" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="6"/>
+      <c r="D16" s="5"/>
       <c r="E16" s="19"/>
     </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="9">
+    <row r="17" spans="1:6">
+      <c r="A17" s="8">
         <v>6</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="14"/>
+      <c r="D17" s="13"/>
       <c r="E17" s="20"/>
+      <c r="F17" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="10"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="9"/>
       <c r="E18" s="20"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="6"/>
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="5"/>
       <c r="E19" s="20"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="9">
+      <c r="A20" s="8">
         <v>7</v>
       </c>
-      <c r="B20" s="9" t="s">
-        <v>30</v>
+      <c r="B20" s="8" t="s">
+        <v>31</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" s="6"/>
+        <v>32</v>
+      </c>
+      <c r="D20" s="5"/>
       <c r="E20" s="17"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
       <c r="C21" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" s="6"/>
+        <v>33</v>
+      </c>
+      <c r="D21" s="5"/>
       <c r="E21" s="18"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" s="6"/>
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="5"/>
       <c r="E22" s="19"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="9">
+      <c r="A23" s="8">
         <v>8</v>
       </c>
-      <c r="B23" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="13" t="s">
+      <c r="B23" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="C23" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E23" s="17"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D24" s="6" t="s">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E24" s="18"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
       <c r="C25" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D25" s="6" t="s">
         <v>38</v>
       </c>
+      <c r="D25" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="E25" s="19"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="9">
+      <c r="A26" s="8">
         <v>9</v>
       </c>
-      <c r="B26" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26" s="13" t="s">
+      <c r="B26" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="C26" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E26" s="17"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D27" s="6" t="s">
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E27" s="18"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="12"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D28" s="6" t="s">
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E28" s="19"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="9">
+      <c r="A29" s="8">
         <v>10</v>
       </c>
-      <c r="B29" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C29" s="13" t="s">
+      <c r="B29" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D29" s="6"/>
+      <c r="C29" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" s="5"/>
       <c r="E29" s="17"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11"/>
+      <c r="A30" s="10"/>
+      <c r="B30" s="10"/>
       <c r="C30" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D30" s="6"/>
+        <v>46</v>
+      </c>
+      <c r="D30" s="5"/>
       <c r="E30" s="18"/>
     </row>
     <row r="31" ht="17" customHeight="1" spans="1:5">
-      <c r="A31" s="12"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="D31" s="6"/>
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D31" s="5"/>
       <c r="E31" s="19"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="9">
+      <c r="A32" s="8">
         <v>11</v>
       </c>
-      <c r="B32" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C32" s="13" t="s">
+      <c r="B32" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="C32" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E32" s="21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
       <c r="C33" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D33" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D33" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E33" s="18"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="12"/>
-      <c r="B34" s="12"/>
+      <c r="A34" s="11"/>
+      <c r="B34" s="11"/>
       <c r="C34" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D34" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D34" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E34" s="19"/>
@@ -1695,12 +1702,15 @@
     <hyperlink ref="C28" r:id="rId9" display="https://v.ifeng.com/c/8LYJO5wUt7z"/>
     <hyperlink ref="C29" r:id="rId10" display="https://www.ixigua.com/pseries/6762421329418256907_6760625597132571147/"/>
     <hyperlink ref="C32" r:id="rId11" display="https://v.kuaishou.com/diUCxC" tooltip="https://v.kuaishou.com/diUCxC"/>
-    <hyperlink ref="C31" r:id="rId12" display="https://www.ixigua.com/7067856027621949964"/>
-    <hyperlink ref="C17" r:id="rId13" display="https://tv.sohu.com/v/MjAyMjA2MTYvbjYwMTE5MDc4NC5zaHRtbA==.html"/>
+    <hyperlink ref="C31" r:id="rId12" display="https://www.ixigua.com/7067856027621949964" tooltip="https://www.ixigua.com/7067856027621949964"/>
+    <hyperlink ref="C17" r:id="rId13" display="https://tv.sohu.com/v/MjAyMjA2MTYvbjYwMTE5MDc4NC5zaHRtbA==.html" tooltip="https://tv.sohu.com/v/MjAyMjA2MTYvbjYwMTE5MDc4NC5zaHRtbA==.html"/>
     <hyperlink ref="C11" r:id="rId14" display="https://www.mgtv.com/b/354045/10948467.html"/>
     <hyperlink ref="C12" r:id="rId15" display="https://www.mgtv.com/b/388252/15472835.html"/>
     <hyperlink ref="C13" r:id="rId16" display="https://www.mgtv.com/b/401876/15491442.html"/>
     <hyperlink ref="C8" r:id="rId17" display="https://v.youku.com/v_show/id_XNTIwNTIwMzQyMA==.html"/>
+    <hyperlink ref="C19" r:id="rId18" display="https://tv.sohu.com/v/MjAyMTA4MDMvbjYwMTAzMTc3NC5zaHRtbA==.html"/>
+    <hyperlink ref="C22" r:id="rId19" display="https://v.pptv.com/show/zxbicfeVLuiclc2kI.html"/>
+    <hyperlink ref="C18" r:id="rId20" display="https://tv.sohu.com/v/MjAyMDA3MDMvbjYwMDg3NzE0OS5zaHRtbA==.html" tooltip="https://tv.sohu.com/v/MjAyMDA3MDMvbjYwMDg3NzE0OS5zaHRtbA==.html"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/video-website.xlsx
+++ b/video-website.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="53">
   <si>
     <t>序号</t>
   </si>
@@ -31,6 +31,9 @@
     <t>问题</t>
   </si>
   <si>
+    <t>step1</t>
+  </si>
+  <si>
     <t>爱奇艺</t>
   </si>
   <si>
@@ -98,9 +101,6 @@
   </si>
   <si>
     <t>https://tv.sohu.com/v/MjAyMjA2MTYvbjYwMTE5MDc4NC5zaHRtbA==.html</t>
-  </si>
-  <si>
-    <t>var vid="7835608";</t>
   </si>
   <si>
     <t>https://tv.sohu.com/v/MjAyMDA3MDMvbjYwMDg3NzE0OS5zaHRtbA==.html</t>
@@ -203,18 +203,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="10.5"/>
-      <color rgb="FF5F5F5F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF89CA78"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -744,7 +744,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
@@ -871,7 +871,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -909,10 +909,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -928,8 +925,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1256,7 +1259,7 @@
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="5"/>
@@ -1265,10 +1268,10 @@
     <col min="3" max="3" width="76.1071428571429" customWidth="1"/>
     <col min="4" max="4" width="18.375" customWidth="1"/>
     <col min="5" max="5" width="21.7232142857143" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.9464285714286" customWidth="1"/>
+    <col min="6" max="6" width="73.2142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1281,8 +1284,11 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="15" t="s">
         <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1290,182 +1296,183 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" s="5"/>
-      <c r="E2" s="17"/>
+      <c r="E2" s="16"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" s="5"/>
-      <c r="E3" s="18"/>
+      <c r="E3" s="17"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="19"/>
+        <v>10</v>
+      </c>
+      <c r="E4" s="18"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="8">
         <v>2</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" s="9"/>
-      <c r="E5" s="17"/>
+      <c r="E5" s="16"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
       <c r="C6" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D6" s="9"/>
-      <c r="E6" s="18"/>
+      <c r="E6" s="17"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D7" s="9"/>
-      <c r="E7" s="19"/>
+      <c r="E7" s="18"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="8">
         <v>3</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D8" s="5"/>
-      <c r="E8" s="17"/>
+      <c r="E8" s="16"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
       <c r="C9" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D9" s="5"/>
-      <c r="E9" s="18"/>
+      <c r="E9" s="17"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D10" s="9"/>
-      <c r="E10" s="19"/>
+      <c r="E10" s="18"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="8">
         <v>4</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D11" s="5"/>
-      <c r="E11" s="17"/>
+      <c r="E11" s="16"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
       <c r="C12" s="12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D12" s="5"/>
-      <c r="E12" s="18"/>
+      <c r="E12" s="17"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="11"/>
       <c r="B13" s="11"/>
       <c r="C13" s="12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D13" s="5"/>
-      <c r="E13" s="19"/>
+      <c r="E13" s="18"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="8">
         <v>5</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D14" s="5"/>
-      <c r="E14" s="17"/>
+      <c r="E14" s="16"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
       <c r="C15" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" s="5"/>
-      <c r="E15" s="18"/>
+      <c r="E15" s="17"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
-      <c r="C16" s="2" t="s">
-        <v>25</v>
+      <c r="C16" s="12" t="s">
+        <v>26</v>
       </c>
       <c r="D16" s="5"/>
-      <c r="E16" s="19"/>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="E16" s="18"/>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="8">
         <v>6</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="20"/>
-      <c r="F17" t="s">
         <v>28</v>
       </c>
+      <c r="D17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="19"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="20"/>
+      <c r="D18" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="19"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="11"/>
@@ -1473,8 +1480,10 @@
       <c r="C19" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="20"/>
+      <c r="D19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="19"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="8">
@@ -1483,20 +1492,23 @@
       <c r="B20" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="12" t="s">
         <v>32</v>
       </c>
       <c r="D20" s="5"/>
-      <c r="E20" s="17"/>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="E20" s="16"/>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="12" t="s">
         <v>33</v>
       </c>
       <c r="D21" s="5"/>
-      <c r="E21" s="18"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="20">
+        <v>9053859</v>
+      </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="11"/>
@@ -1505,7 +1517,7 @@
         <v>34</v>
       </c>
       <c r="D22" s="5"/>
-      <c r="E22" s="19"/>
+      <c r="E22" s="18"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="8">
@@ -1518,9 +1530,9 @@
         <v>36</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" s="17"/>
+        <v>10</v>
+      </c>
+      <c r="E23" s="16"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="10"/>
@@ -1529,9 +1541,9 @@
         <v>37</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" s="18"/>
+        <v>10</v>
+      </c>
+      <c r="E24" s="17"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="11"/>
@@ -1542,7 +1554,7 @@
       <c r="D25" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E25" s="19"/>
+      <c r="E25" s="18"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="8">
@@ -1555,9 +1567,9 @@
         <v>41</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" s="17"/>
+        <v>10</v>
+      </c>
+      <c r="E26" s="16"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="10"/>
@@ -1566,9 +1578,9 @@
         <v>42</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" s="18"/>
+        <v>10</v>
+      </c>
+      <c r="E27" s="17"/>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="11"/>
@@ -1577,11 +1589,11 @@
         <v>43</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E28" s="19"/>
-    </row>
-    <row r="29" spans="1:5">
+        <v>10</v>
+      </c>
+      <c r="E28" s="18"/>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="8">
         <v>10</v>
       </c>
@@ -1591,17 +1603,22 @@
       <c r="C29" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="5"/>
-      <c r="E29" s="17"/>
+      <c r="D29" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="16"/>
+      <c r="F29" s="21"/>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="10"/>
       <c r="B30" s="10"/>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D30" s="5"/>
-      <c r="E30" s="18"/>
+      <c r="D30" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="17"/>
     </row>
     <row r="31" ht="17" customHeight="1" spans="1:5">
       <c r="A31" s="11"/>
@@ -1609,8 +1626,10 @@
       <c r="C31" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D31" s="5"/>
-      <c r="E31" s="19"/>
+      <c r="D31" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="18"/>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="8">
@@ -1623,9 +1642,9 @@
         <v>49</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E32" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="22" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1636,9 +1655,9 @@
         <v>51</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E33" s="18"/>
+        <v>10</v>
+      </c>
+      <c r="E33" s="17"/>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="11"/>
@@ -1647,12 +1666,12 @@
         <v>52</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E34" s="19"/>
+        <v>10</v>
+      </c>
+      <c r="E34" s="18"/>
     </row>
     <row r="52" spans="2:2">
-      <c r="B52" s="15"/>
+      <c r="B52" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="33">
@@ -1700,17 +1719,21 @@
     <hyperlink ref="C26" r:id="rId7" display="https://v.ifeng.com/c/8O1MxOEuQ4k"/>
     <hyperlink ref="C27" r:id="rId8" display="https://v.ifeng.com/c/8Mhn0o5wXPi" tooltip="https://v.ifeng.com/c/8Mhn0o5wXPi"/>
     <hyperlink ref="C28" r:id="rId9" display="https://v.ifeng.com/c/8LYJO5wUt7z"/>
-    <hyperlink ref="C29" r:id="rId10" display="https://www.ixigua.com/pseries/6762421329418256907_6760625597132571147/"/>
+    <hyperlink ref="C29" r:id="rId10" display="https://www.ixigua.com/pseries/6762421329418256907_6760625597132571147/" tooltip="https://www.ixigua.com/pseries/6762421329418256907_6760625597132571147/"/>
     <hyperlink ref="C32" r:id="rId11" display="https://v.kuaishou.com/diUCxC" tooltip="https://v.kuaishou.com/diUCxC"/>
     <hyperlink ref="C31" r:id="rId12" display="https://www.ixigua.com/7067856027621949964" tooltip="https://www.ixigua.com/7067856027621949964"/>
     <hyperlink ref="C17" r:id="rId13" display="https://tv.sohu.com/v/MjAyMjA2MTYvbjYwMTE5MDc4NC5zaHRtbA==.html" tooltip="https://tv.sohu.com/v/MjAyMjA2MTYvbjYwMTE5MDc4NC5zaHRtbA==.html"/>
-    <hyperlink ref="C11" r:id="rId14" display="https://www.mgtv.com/b/354045/10948467.html"/>
+    <hyperlink ref="C11" r:id="rId14" display="https://www.mgtv.com/b/354045/10948467.html" tooltip="https://www.mgtv.com/b/354045/10948467.html"/>
     <hyperlink ref="C12" r:id="rId15" display="https://www.mgtv.com/b/388252/15472835.html"/>
     <hyperlink ref="C13" r:id="rId16" display="https://www.mgtv.com/b/401876/15491442.html"/>
     <hyperlink ref="C8" r:id="rId17" display="https://v.youku.com/v_show/id_XNTIwNTIwMzQyMA==.html"/>
     <hyperlink ref="C19" r:id="rId18" display="https://tv.sohu.com/v/MjAyMTA4MDMvbjYwMTAzMTc3NC5zaHRtbA==.html"/>
     <hyperlink ref="C22" r:id="rId19" display="https://v.pptv.com/show/zxbicfeVLuiclc2kI.html"/>
     <hyperlink ref="C18" r:id="rId20" display="https://tv.sohu.com/v/MjAyMDA3MDMvbjYwMDg3NzE0OS5zaHRtbA==.html" tooltip="https://tv.sohu.com/v/MjAyMDA3MDMvbjYwMDg3NzE0OS5zaHRtbA==.html"/>
+    <hyperlink ref="C20" r:id="rId21" display="https://v.pptv.com/show/o8OsKpL4aKYJhib8.html" tooltip="https://v.pptv.com/show/o8OsKpL4aKYJhib8.html"/>
+    <hyperlink ref="C21" r:id="rId22" display="https://v.pptv.com/show/f5ZicicWXLO3ncWsI.html"/>
+    <hyperlink ref="C30" r:id="rId23" display="https://www.ixigua.com/6726810241054278158" tooltip="https://www.ixigua.com/6726810241054278158"/>
+    <hyperlink ref="C16" r:id="rId24" display="https://www.bilibili.com/bangumi/play/ss24608"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/video-website.xlsx
+++ b/video-website.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="55">
   <si>
     <t>序号</t>
   </si>
@@ -34,6 +34,9 @@
     <t>step1</t>
   </si>
   <si>
+    <t>step2</t>
+  </si>
+  <si>
     <t>爱奇艺</t>
   </si>
   <si>
@@ -115,6 +118,9 @@
     <t>https://v.pptv.com/show/o8OsKpL4aKYJhib8.html</t>
   </si>
   <si>
+    <t>使用m3u8分片视频</t>
+  </si>
+  <si>
     <t>https://v.pptv.com/show/f5ZicicWXLO3ncWsI.html</t>
   </si>
   <si>
@@ -166,8 +172,7 @@
     <t>https://v.kuaishou.com/diUCxC</t>
   </si>
   <si>
-    <t>需要定时更新cookie，
-cookie有效期一年</t>
+    <t>需要定时更新cookie 一年</t>
   </si>
   <si>
     <t>https://v.kuaishou.com/hiZKok</t>
@@ -355,13 +360,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -871,65 +876,76 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1256,422 +1272,436 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="19.25" customWidth="1"/>
     <col min="3" max="3" width="76.1071428571429" customWidth="1"/>
     <col min="4" max="4" width="18.375" customWidth="1"/>
-    <col min="5" max="5" width="21.7232142857143" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.7232142857143" style="2" customWidth="1"/>
     <col min="6" max="6" width="73.2142857142857" customWidth="1"/>
+    <col min="7" max="7" width="47.4732142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="19" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="3">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:5">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:5">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="7"/>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:5">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:5">
+      <c r="A5" s="4">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:5">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="7"/>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:5">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:5">
+      <c r="A8" s="4">
+        <v>3</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="1:5">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="7"/>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="1:5">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:5">
+      <c r="A11" s="4">
+        <v>4</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:5">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="1:5">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="8"/>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="1:5">
+      <c r="A14" s="4">
+        <v>5</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="1:5">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="7"/>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="1:5">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="11">
         <v>6</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="B17" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="20"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="20"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="16"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="20"/>
+    </row>
+    <row r="20" ht="17" customHeight="1" spans="1:6">
+      <c r="A20" s="11">
         <v>7</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="16"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="4" t="s">
+      <c r="B20" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="13"/>
+      <c r="E20" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" s="22"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="13"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="24"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="16"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="13"/>
+      <c r="E22" s="25"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="11">
         <v>8</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="17"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="4" t="s">
+      <c r="B23" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="21"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="23"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="16"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" s="25"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="11">
         <v>9</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="B26" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="21"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="23"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="16"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="25"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="11">
         <v>10</v>
       </c>
-      <c r="E4" s="18"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="8">
-        <v>2</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="16"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="17"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="18"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="8">
-        <v>3</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="16"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="17"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="18"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="8">
-        <v>4</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="16"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="17"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="18"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="8">
-        <v>5</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="16"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="17"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="18"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="8">
-        <v>6</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="19"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="19"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="19"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="8">
-        <v>7</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="16"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="20">
-        <v>9053859</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="18"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="8">
-        <v>8</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" s="16"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" s="17"/>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E25" s="18"/>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="8">
-        <v>9</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" s="16"/>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="10"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" s="17"/>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28" s="18"/>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="8">
-        <v>10</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>44</v>
+      <c r="B29" s="11" t="s">
+        <v>46</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" s="16"/>
-      <c r="F29" s="21"/>
+        <v>47</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="21"/>
+      <c r="F29" s="26"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="10"/>
-      <c r="B30" s="10"/>
+      <c r="A30" s="14"/>
+      <c r="B30" s="14"/>
       <c r="C30" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E30" s="17"/>
+        <v>48</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="23"/>
     </row>
     <row r="31" ht="17" customHeight="1" spans="1:5">
-      <c r="A31" s="11"/>
-      <c r="B31" s="11"/>
+      <c r="A31" s="16"/>
+      <c r="B31" s="16"/>
       <c r="C31" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31" s="18"/>
+        <v>49</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="25"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="8">
-        <v>11</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>48</v>
+      <c r="A32" s="11">
+        <v>11</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>50</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E32" s="22" t="s">
-        <v>50</v>
+        <v>51</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="27" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="10"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E33" s="17"/>
+      <c r="A33" s="14"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="23"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E34" s="18"/>
+      <c r="A34" s="16"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="25"/>
+    </row>
+    <row r="42" spans="3:3">
+      <c r="C42" s="17"/>
     </row>
     <row r="52" spans="2:2">
-      <c r="B52" s="14"/>
+      <c r="B52" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="33">
@@ -1728,12 +1758,16 @@
     <hyperlink ref="C13" r:id="rId16" display="https://www.mgtv.com/b/401876/15491442.html"/>
     <hyperlink ref="C8" r:id="rId17" display="https://v.youku.com/v_show/id_XNTIwNTIwMzQyMA==.html"/>
     <hyperlink ref="C19" r:id="rId18" display="https://tv.sohu.com/v/MjAyMTA4MDMvbjYwMTAzMTc3NC5zaHRtbA==.html"/>
-    <hyperlink ref="C22" r:id="rId19" display="https://v.pptv.com/show/zxbicfeVLuiclc2kI.html"/>
+    <hyperlink ref="C22" r:id="rId19" display="https://v.pptv.com/show/zxbicfeVLuiclc2kI.html" tooltip="https://v.pptv.com/show/zxbicfeVLuiclc2kI.html"/>
     <hyperlink ref="C18" r:id="rId20" display="https://tv.sohu.com/v/MjAyMDA3MDMvbjYwMDg3NzE0OS5zaHRtbA==.html" tooltip="https://tv.sohu.com/v/MjAyMDA3MDMvbjYwMDg3NzE0OS5zaHRtbA==.html"/>
     <hyperlink ref="C20" r:id="rId21" display="https://v.pptv.com/show/o8OsKpL4aKYJhib8.html" tooltip="https://v.pptv.com/show/o8OsKpL4aKYJhib8.html"/>
-    <hyperlink ref="C21" r:id="rId22" display="https://v.pptv.com/show/f5ZicicWXLO3ncWsI.html"/>
+    <hyperlink ref="C21" r:id="rId22" display="https://v.pptv.com/show/f5ZicicWXLO3ncWsI.html" tooltip="https://v.pptv.com/show/f5ZicicWXLO3ncWsI.html"/>
     <hyperlink ref="C30" r:id="rId23" display="https://www.ixigua.com/6726810241054278158" tooltip="https://www.ixigua.com/6726810241054278158"/>
     <hyperlink ref="C16" r:id="rId24" display="https://www.bilibili.com/bangumi/play/ss24608"/>
+    <hyperlink ref="C10" r:id="rId25" display="https://v.youku.com/v_show/id_XNTE5Nzg0ODAyOA==.html"/>
+    <hyperlink ref="C5" r:id="rId26" display="https://v.qq.com/x/cover/mzc00200my8s5sr/w0044vllwhj.html" tooltip="https://v.qq.com/x/cover/mzc00200my8s5sr/w0044vllwhj.html"/>
+    <hyperlink ref="C6" r:id="rId27" display="https://v.qq.com/x/cover/mzc00200c2ku08a/d0041bwpuu7.html"/>
+    <hyperlink ref="C7" r:id="rId28" display="https://v.qq.com/x/cover/mzc00200wl6js55/o0042uh3rfa.html"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/video-website.xlsx
+++ b/video-website.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="54">
   <si>
     <t>序号</t>
   </si>
@@ -70,6 +70,9 @@
     <t>https://v.youku.com/v_show/id_XNTIwNTIwMzQyMA==.html</t>
   </si>
   <si>
+    <t>需要定时更新cookie 一年</t>
+  </si>
+  <si>
     <t>https://v.youku.com/v_show/id_XNTIwMjAyODUwMA==.html</t>
   </si>
   <si>
@@ -118,9 +121,6 @@
     <t>https://v.pptv.com/show/o8OsKpL4aKYJhib8.html</t>
   </si>
   <si>
-    <t>使用m3u8分片视频</t>
-  </si>
-  <si>
     <t>https://v.pptv.com/show/f5ZicicWXLO3ncWsI.html</t>
   </si>
   <si>
@@ -170,9 +170,6 @@
   </si>
   <si>
     <t>https://v.kuaishou.com/diUCxC</t>
-  </si>
-  <si>
-    <t>需要定时更新cookie 一年</t>
   </si>
   <si>
     <t>https://v.kuaishou.com/hiZKok</t>
@@ -351,18 +348,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -752,7 +743,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -776,16 +767,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -794,95 +785,113 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -897,52 +906,31 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1275,7 +1263,7 @@
   <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+      <selection activeCell="E11" sqref="E11:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="6"/>
@@ -1283,7 +1271,7 @@
     <col min="2" max="2" width="19.25" customWidth="1"/>
     <col min="3" max="3" width="76.1071428571429" customWidth="1"/>
     <col min="4" max="4" width="18.375" customWidth="1"/>
-    <col min="5" max="5" width="21.7232142857143" style="2" customWidth="1"/>
+    <col min="5" max="5" width="38.8392857142857" style="2" customWidth="1"/>
     <col min="6" max="6" width="73.2142857142857" customWidth="1"/>
     <col min="7" max="7" width="47.4732142857143" customWidth="1"/>
   </cols>
@@ -1301,7 +1289,7 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="18" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
@@ -1391,25 +1379,33 @@
       <c r="C8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="4"/>
+      <c r="D8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:5">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="6"/>
+        <v>19</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="E9" s="7"/>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:5">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="10"/>
+        <v>20</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="E10" s="8"/>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:5">
@@ -1417,10 +1413,10 @@
         <v>4</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="4"/>
@@ -1429,7 +1425,7 @@
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="7"/>
@@ -1438,7 +1434,7 @@
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="8"/>
@@ -1448,10 +1444,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="4"/>
@@ -1460,7 +1456,7 @@
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="7"/>
@@ -1469,239 +1465,237 @@
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="8"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="11">
+      <c r="A17" s="10">
         <v>6</v>
       </c>
-      <c r="B17" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="12" t="s">
+      <c r="B17" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="20"/>
+      <c r="C17" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="19"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="20"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="19"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="16"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="20"/>
-    </row>
-    <row r="20" ht="17" customHeight="1" spans="1:6">
-      <c r="A20" s="11">
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="19"/>
+    </row>
+    <row r="20" s="1" customFormat="1" ht="17" customHeight="1" spans="1:6">
+      <c r="A20" s="4">
         <v>7</v>
       </c>
-      <c r="B20" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="12" t="s">
+      <c r="B20" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="13"/>
-      <c r="E20" s="21" t="s">
+      <c r="C20" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F20" s="22"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="12" t="s">
+      <c r="D20" s="6"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="20"/>
+    </row>
+    <row r="21" s="1" customFormat="1" spans="1:6">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="13"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="24"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="16"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="12" t="s">
+      <c r="D21" s="6"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="21"/>
+    </row>
+    <row r="22" s="1" customFormat="1" spans="1:5">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="13"/>
-      <c r="E22" s="25"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="8"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="11">
+      <c r="A23" s="10">
         <v>8</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="21"/>
+      <c r="D23" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="22"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="12" t="s">
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="D24" s="12" t="s">
         <v>11</v>
       </c>
       <c r="E24" s="23"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="16"/>
-      <c r="B25" s="16"/>
+      <c r="A25" s="15"/>
+      <c r="B25" s="15"/>
       <c r="C25" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="E25" s="25"/>
+      <c r="E25" s="24"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="11">
+      <c r="A26" s="10">
         <v>9</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C26" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D26" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" s="21"/>
+      <c r="D26" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="22"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="12" t="s">
+      <c r="A27" s="13"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D27" s="12" t="s">
         <v>11</v>
       </c>
       <c r="E27" s="23"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="16"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="12" t="s">
+      <c r="A28" s="15"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D28" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" s="25"/>
+      <c r="D28" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="24"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="11">
+      <c r="A29" s="10">
         <v>10</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C29" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D29" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E29" s="21"/>
-      <c r="F29" s="26"/>
+      <c r="D29" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="22"/>
+      <c r="F29" s="25"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="14"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="12" t="s">
+      <c r="A30" s="13"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D30" s="12" t="s">
         <v>11</v>
       </c>
       <c r="E30" s="23"/>
     </row>
     <row r="31" ht="17" customHeight="1" spans="1:5">
-      <c r="A31" s="16"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="12" t="s">
+      <c r="A31" s="15"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D31" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E31" s="25"/>
+      <c r="D31" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="24"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="11">
-        <v>11</v>
-      </c>
-      <c r="B32" s="11" t="s">
+      <c r="A32" s="10">
+        <v>11</v>
+      </c>
+      <c r="B32" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="C32" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D32" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E32" s="27" t="s">
+      <c r="D32" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="13"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="14"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="3" t="s">
+      <c r="D33" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="23"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="15"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D33" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E33" s="23"/>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="16"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E34" s="25"/>
+      <c r="D34" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="24"/>
     </row>
     <row r="42" spans="3:3">
-      <c r="C42" s="17"/>
+      <c r="C42" s="16"/>
     </row>
     <row r="52" spans="2:2">
-      <c r="B52" s="18"/>
+      <c r="B52" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="33">

--- a/video-website.xlsx
+++ b/video-website.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="23960"/>
+    <workbookView windowWidth="29480" windowHeight="20800"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -348,7 +348,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -358,6 +358,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -743,7 +749,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -767,16 +773,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -785,89 +791,89 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -876,6 +882,21 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -894,6 +915,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -913,7 +937,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1260,10 +1283,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11:E13"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="6"/>
@@ -1289,7 +1312,7 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="23" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
@@ -1333,80 +1356,80 @@
       <c r="E4" s="8"/>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:5">
-      <c r="A5" s="4">
+      <c r="A5" s="9">
         <v>2</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="4"/>
+      <c r="D5" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="9"/>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:5">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="5" t="s">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="7"/>
+      <c r="D6" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="12"/>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:5">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="5" t="s">
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="8"/>
+      <c r="D7" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="13"/>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:5">
-      <c r="A8" s="4">
+      <c r="A8" s="9">
         <v>3</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="4" t="s">
+      <c r="D8" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:5">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="9" t="s">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="7"/>
+      <c r="D9" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="12"/>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:5">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="5" t="s">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="8"/>
+      <c r="D10" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="13"/>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:5">
       <c r="A11" s="4">
@@ -1455,7 +1478,7 @@
     <row r="15" s="1" customFormat="1" spans="1:5">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="15" t="s">
         <v>27</v>
       </c>
       <c r="D15" s="6"/>
@@ -1471,41 +1494,41 @@
       <c r="E16" s="8"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="10">
+      <c r="A17" s="16">
         <v>6</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="19"/>
+      <c r="D17" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="24"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="14" t="s">
+      <c r="A18" s="19"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="19"/>
+      <c r="D18" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="24"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="15"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="11" t="s">
+      <c r="A19" s="21"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="19"/>
+      <c r="D19" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="24"/>
     </row>
     <row r="20" s="1" customFormat="1" ht="17" customHeight="1" spans="1:6">
       <c r="A20" s="4">
@@ -1519,7 +1542,7 @@
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="4"/>
-      <c r="F20" s="20"/>
+      <c r="F20" s="25"/>
     </row>
     <row r="21" s="1" customFormat="1" spans="1:6">
       <c r="A21" s="7"/>
@@ -1529,7 +1552,7 @@
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="7"/>
-      <c r="F21" s="21"/>
+      <c r="F21" s="26"/>
     </row>
     <row r="22" s="1" customFormat="1" spans="1:5">
       <c r="A22" s="8"/>
@@ -1541,161 +1564,158 @@
       <c r="E22" s="8"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="10">
+      <c r="A23" s="16">
         <v>8</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="22"/>
+      <c r="D23" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="27"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="11" t="s">
+      <c r="A24" s="19"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D24" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" s="23"/>
+      <c r="D24" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="28"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="15"/>
-      <c r="B25" s="15"/>
+      <c r="A25" s="21"/>
+      <c r="B25" s="21"/>
       <c r="C25" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="E25" s="24"/>
+      <c r="E25" s="29"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="10">
+      <c r="A26" s="16">
         <v>9</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="D26" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" s="22"/>
+      <c r="D26" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="27"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="13"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="11" t="s">
+      <c r="A27" s="19"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="D27" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" s="23"/>
+      <c r="D27" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="28"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="15"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="11" t="s">
+      <c r="A28" s="21"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="D28" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" s="24"/>
+      <c r="D28" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="29"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="10">
+      <c r="A29" s="16">
         <v>10</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C29" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="D29" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E29" s="22"/>
-      <c r="F29" s="25"/>
+      <c r="D29" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="27"/>
+      <c r="F29" s="30"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="13"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="11" t="s">
+      <c r="A30" s="19"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="D30" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E30" s="23"/>
+      <c r="D30" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="28"/>
     </row>
     <row r="31" ht="17" customHeight="1" spans="1:5">
-      <c r="A31" s="15"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="11" t="s">
+      <c r="A31" s="21"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="D31" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E31" s="24"/>
+      <c r="D31" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="29"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="10">
-        <v>11</v>
-      </c>
-      <c r="B32" s="10" t="s">
+      <c r="A32" s="16">
+        <v>11</v>
+      </c>
+      <c r="B32" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D32" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E32" s="26" t="s">
+      <c r="D32" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="31" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="13"/>
-      <c r="B33" s="13"/>
+      <c r="A33" s="19"/>
+      <c r="B33" s="19"/>
       <c r="C33" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D33" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E33" s="23"/>
+      <c r="D33" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="28"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="15"/>
-      <c r="B34" s="15"/>
+      <c r="A34" s="21"/>
+      <c r="B34" s="21"/>
       <c r="C34" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D34" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E34" s="24"/>
+      <c r="D34" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="29"/>
     </row>
     <row r="42" spans="3:3">
-      <c r="C42" s="16"/>
-    </row>
-    <row r="52" spans="2:2">
-      <c r="B52" s="17"/>
+      <c r="C42" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="33">
@@ -1735,7 +1755,7 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C14" r:id="rId1" display="https://www.bilibili.com/bangumi/play/ss35195" tooltip="https://www.bilibili.com/bangumi/play/ss35195"/>
-    <hyperlink ref="C2" r:id="rId2" display="https://www.iqiyi.com/v_a5tnh7yyr8.html"/>
+    <hyperlink ref="C2" r:id="rId2" display="https://www.iqiyi.com/v_a5tnh7yyr8.html" tooltip="https://www.iqiyi.com/v_a5tnh7yyr8.html"/>
     <hyperlink ref="C3" r:id="rId3" display="https://www.iqiyi.com/a_1c168dv8cj5.html" tooltip="https://www.iqiyi.com/a_1c168dv8cj5.html"/>
     <hyperlink ref="C4" r:id="rId4" display="https://www.iqiyi.com/v_bte31fos94.html"/>
     <hyperlink ref="C23" r:id="rId5" display="https://tv.cctv.com/2022/03/08/VIDEnptauE0cn7I2t7ycCAs8220308.shtml"/>
@@ -1751,7 +1771,7 @@
     <hyperlink ref="C12" r:id="rId15" display="https://www.mgtv.com/b/388252/15472835.html"/>
     <hyperlink ref="C13" r:id="rId16" display="https://www.mgtv.com/b/401876/15491442.html"/>
     <hyperlink ref="C8" r:id="rId17" display="https://v.youku.com/v_show/id_XNTIwNTIwMzQyMA==.html"/>
-    <hyperlink ref="C19" r:id="rId18" display="https://tv.sohu.com/v/MjAyMTA4MDMvbjYwMTAzMTc3NC5zaHRtbA==.html"/>
+    <hyperlink ref="C19" r:id="rId18" display="https://tv.sohu.com/v/MjAyMTA4MDMvbjYwMTAzMTc3NC5zaHRtbA==.html" tooltip="https://tv.sohu.com/v/MjAyMTA4MDMvbjYwMTAzMTc3NC5zaHRtbA==.html"/>
     <hyperlink ref="C22" r:id="rId19" display="https://v.pptv.com/show/zxbicfeVLuiclc2kI.html" tooltip="https://v.pptv.com/show/zxbicfeVLuiclc2kI.html"/>
     <hyperlink ref="C18" r:id="rId20" display="https://tv.sohu.com/v/MjAyMDA3MDMvbjYwMDg3NzE0OS5zaHRtbA==.html" tooltip="https://tv.sohu.com/v/MjAyMDA3MDMvbjYwMDg3NzE0OS5zaHRtbA==.html"/>
     <hyperlink ref="C20" r:id="rId21" display="https://v.pptv.com/show/o8OsKpL4aKYJhib8.html" tooltip="https://v.pptv.com/show/o8OsKpL4aKYJhib8.html"/>
